--- a/EC/Train Runs 2016-05-18 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-18 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -4472,9 +4472,6 @@
     <t>Onboard entered a failsafe state that caused train comm outage</t>
   </si>
   <si>
-    <t>Train was cut out by message from dispatch system</t>
-  </si>
-  <si>
     <t>Wayside link failure</t>
   </si>
   <si>
@@ -6633,6 +6630,9 @@
   </si>
   <si>
     <t>PTC Run Count (2016-05-18)</t>
+  </si>
+  <si>
+    <t>Onboard entered a failsafe state that caused the dispatch system to cut it out</t>
   </si>
 </sst>
 </file>
@@ -7174,18 +7174,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="303">
+  <dxfs count="311">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7319,6 +7319,62 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9499,7 +9555,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9531,11 +9587,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13359,42 +13415,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="192" priority="10">
+    <cfRule type="expression" dxfId="200" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="11">
+    <cfRule type="expression" dxfId="199" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="12">
+    <cfRule type="expression" dxfId="198" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="189" priority="8">
+    <cfRule type="expression" dxfId="197" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="9">
+    <cfRule type="expression" dxfId="196" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="187" priority="6">
+    <cfRule type="expression" dxfId="195" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="186" priority="3">
+    <cfRule type="expression" dxfId="194" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="4">
+    <cfRule type="expression" dxfId="193" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="5">
+    <cfRule type="expression" dxfId="192" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="183" priority="2">
+    <cfRule type="expression" dxfId="191" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13439,8 +13495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15789,7 +15845,7 @@
         <v>2.733796297252411E-2</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1376</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16003,7 +16059,7 @@
         <v>2.9872685190639459E-2</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16173,7 +16229,7 @@
         <v>3.0752314814890269E-2</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16196,7 +16252,7 @@
         <v>2.4189814816054422E-2</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16242,7 +16298,7 @@
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16544,7 +16600,7 @@
         <v>9.9999999947613105E-3</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -16871,52 +16927,68 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:G162">
-    <cfRule type="expression" dxfId="180" priority="33">
+  <conditionalFormatting sqref="C3:G102 C104:G162 C103:F103">
+    <cfRule type="expression" dxfId="188" priority="37">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="34">
+    <cfRule type="expression" dxfId="187" priority="38">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="35">
+    <cfRule type="expression" dxfId="186" priority="39">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G162">
-    <cfRule type="expression" dxfId="177" priority="29">
+  <conditionalFormatting sqref="A3:G102 A104:G162 A103:F103">
+    <cfRule type="expression" dxfId="185" priority="33">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A89:B90 A103:B103 A121:B121 A113:B113">
-    <cfRule type="expression" dxfId="176" priority="54">
+    <cfRule type="expression" dxfId="184" priority="58">
       <formula>$P4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="55">
+    <cfRule type="expression" dxfId="183" priority="59">
       <formula>$O4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B87 A91:B101 A124:B162 A104:B111 A114:B119">
-    <cfRule type="expression" dxfId="174" priority="69">
+    <cfRule type="expression" dxfId="182" priority="73">
       <formula>$P8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="70">
+    <cfRule type="expression" dxfId="181" priority="74">
       <formula>$O8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88 A102:B102 A120:B120 A122:B123">
-    <cfRule type="expression" dxfId="172" priority="87">
+    <cfRule type="expression" dxfId="180" priority="91">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="88">
+    <cfRule type="expression" dxfId="179" priority="92">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="170" priority="109">
+    <cfRule type="expression" dxfId="178" priority="113">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="110">
+    <cfRule type="expression" dxfId="177" priority="114">
       <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(ISBLANK($G103))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16925,7 +16997,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="58" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="62" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N4&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16938,7 +17010,7 @@
           <xm:sqref>A3:B5 A89:B90 A103:B103 A121:B121 A113:B113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="72" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="76" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N8&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16951,7 +17023,7 @@
           <xm:sqref>A6:B87 A91:B101 A124:B162 A104:B111 A114:B119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="94" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="98" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -16964,7 +17036,7 @@
           <xm:sqref>A88:B88 A102:B102 A120:B120 A122:B123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="116" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="120" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17131,7 +17203,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -17165,7 +17237,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B5" s="6">
         <v>4040</v>
@@ -17202,7 +17274,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B6" s="6">
         <v>4023</v>
@@ -17239,7 +17311,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B7" s="6">
         <v>4016</v>
@@ -17276,7 +17348,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B8" s="6">
         <v>4026</v>
@@ -17313,7 +17385,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B9" s="6">
         <v>4038</v>
@@ -17349,7 +17421,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B10" s="6">
         <v>4037</v>
@@ -17370,7 +17442,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B11" s="6">
         <v>4014</v>
@@ -17391,7 +17463,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B12" s="6">
         <v>4013</v>
@@ -17412,7 +17484,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -17433,7 +17505,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -17454,7 +17526,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -17475,7 +17547,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -17496,7 +17568,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B17" s="6">
         <v>4040</v>
@@ -17517,7 +17589,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B18" s="6">
         <v>4039</v>
@@ -17538,7 +17610,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B19" s="6">
         <v>4024</v>
@@ -17559,7 +17631,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B20" s="6">
         <v>4023</v>
@@ -17580,7 +17652,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B21" s="6">
         <v>4016</v>
@@ -17601,7 +17673,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B22" s="6">
         <v>4015</v>
@@ -17622,7 +17694,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B23" s="6">
         <v>4038</v>
@@ -17643,7 +17715,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B24" s="6">
         <v>4037</v>
@@ -17664,7 +17736,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B25" s="6">
         <v>4014</v>
@@ -17685,7 +17757,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B26" s="6">
         <v>4013</v>
@@ -17706,7 +17778,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -17729,7 +17801,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -17750,7 +17822,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -17771,7 +17843,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -17792,7 +17864,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B31" s="6">
         <v>4040</v>
@@ -17813,7 +17885,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B32" s="6">
         <v>4039</v>
@@ -17834,7 +17906,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B33" s="6">
         <v>4024</v>
@@ -17855,7 +17927,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B34" s="6">
         <v>4023</v>
@@ -17876,7 +17948,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B35" s="6">
         <v>4016</v>
@@ -17897,7 +17969,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B36" s="6">
         <v>4015</v>
@@ -17918,7 +17990,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B37" s="6">
         <v>4038</v>
@@ -17939,7 +18011,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B38" s="6">
         <v>4037</v>
@@ -17960,7 +18032,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B39" s="6">
         <v>4014</v>
@@ -17981,7 +18053,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B40" s="6">
         <v>4013</v>
@@ -18002,7 +18074,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -18023,7 +18095,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -18044,7 +18116,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -18065,7 +18137,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -18086,7 +18158,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B45" s="6">
         <v>4040</v>
@@ -18107,7 +18179,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B46" s="6">
         <v>4039</v>
@@ -18128,7 +18200,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B47" s="6">
         <v>4024</v>
@@ -18149,7 +18221,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B48" s="6">
         <v>4023</v>
@@ -18170,7 +18242,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B49" s="6">
         <v>4016</v>
@@ -18193,7 +18265,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B50" s="6">
         <v>4015</v>
@@ -18214,7 +18286,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B51" s="6">
         <v>4038</v>
@@ -18235,7 +18307,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B52" s="6">
         <v>4037</v>
@@ -18256,7 +18328,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B53" s="6">
         <v>4014</v>
@@ -18277,7 +18349,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B54" s="6">
         <v>4013</v>
@@ -18298,7 +18370,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -18319,7 +18391,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -18340,7 +18412,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -18361,7 +18433,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -18382,7 +18454,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B59" s="6">
         <v>4040</v>
@@ -18403,7 +18475,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B60" s="6">
         <v>4039</v>
@@ -18424,7 +18496,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B61" s="6">
         <v>4024</v>
@@ -18445,7 +18517,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B62" s="6">
         <v>4023</v>
@@ -18466,7 +18538,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B63" s="6">
         <v>4015</v>
@@ -18487,7 +18559,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B64" s="6">
         <v>4038</v>
@@ -18508,7 +18580,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B65" s="6">
         <v>4037</v>
@@ -18529,7 +18601,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B66" s="6">
         <v>4014</v>
@@ -18550,7 +18622,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B67" s="6">
         <v>4013</v>
@@ -18571,7 +18643,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B68" s="6">
         <v>4011</v>
@@ -18592,7 +18664,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B69" s="6">
         <v>4012</v>
@@ -18613,7 +18685,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B70" s="6">
         <v>4031</v>
@@ -18634,7 +18706,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B71" s="6">
         <v>4032</v>
@@ -18655,7 +18727,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B72" s="6">
         <v>4040</v>
@@ -18676,7 +18748,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B73" s="6">
         <v>4039</v>
@@ -18697,7 +18769,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B74" s="6">
         <v>4025</v>
@@ -18718,7 +18790,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B75" s="6">
         <v>4026</v>
@@ -18739,7 +18811,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B76" s="6">
         <v>4016</v>
@@ -18760,7 +18832,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B77" s="6">
         <v>4015</v>
@@ -18781,7 +18853,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B78" s="6">
         <v>4038</v>
@@ -18802,7 +18874,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B79" s="6">
         <v>4037</v>
@@ -18823,7 +18895,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B80" s="6">
         <v>4014</v>
@@ -18844,7 +18916,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B81" s="6">
         <v>4013</v>
@@ -18865,7 +18937,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B82" s="6">
         <v>4011</v>
@@ -18886,7 +18958,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B83" s="6">
         <v>4012</v>
@@ -18907,7 +18979,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B84" s="6">
         <v>4031</v>
@@ -18928,7 +19000,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B85" s="6">
         <v>4032</v>
@@ -18949,7 +19021,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B86" s="6">
         <v>4040</v>
@@ -18970,7 +19042,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B87" s="6">
         <v>4039</v>
@@ -18991,7 +19063,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B88" s="6">
         <v>4025</v>
@@ -19012,7 +19084,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B89" s="6">
         <v>4026</v>
@@ -19033,7 +19105,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B90" s="6">
         <v>4016</v>
@@ -19054,7 +19126,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B91" s="6">
         <v>4015</v>
@@ -19075,7 +19147,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B92" s="6">
         <v>4038</v>
@@ -19096,7 +19168,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B93" s="6">
         <v>4037</v>
@@ -19117,7 +19189,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B94" s="6">
         <v>4014</v>
@@ -19138,7 +19210,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B95" s="6">
         <v>4013</v>
@@ -19159,7 +19231,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -19180,7 +19252,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -19201,7 +19273,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B98" s="6">
         <v>4031</v>
@@ -19222,7 +19294,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B99" s="6">
         <v>4032</v>
@@ -19243,7 +19315,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B100" s="6">
         <v>4040</v>
@@ -19264,7 +19336,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B101" s="6">
         <v>4039</v>
@@ -19285,7 +19357,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B102" s="6">
         <v>4025</v>
@@ -19306,7 +19378,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B103" s="6">
         <v>4026</v>
@@ -19327,7 +19399,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B104" s="6">
         <v>4016</v>
@@ -19348,7 +19420,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B105" s="6">
         <v>4015</v>
@@ -19369,7 +19441,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B106" s="6">
         <v>4038</v>
@@ -19390,7 +19462,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B107" s="6">
         <v>4037</v>
@@ -19411,7 +19483,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B108" s="6">
         <v>4014</v>
@@ -19432,7 +19504,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B109" s="6">
         <v>4013</v>
@@ -19453,7 +19525,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -19474,7 +19546,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -19495,7 +19567,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B112" s="6">
         <v>4031</v>
@@ -19516,7 +19588,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B113" s="6">
         <v>4032</v>
@@ -19537,7 +19609,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B114" s="6">
         <v>4040</v>
@@ -19558,7 +19630,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B115" s="6">
         <v>4039</v>
@@ -19579,7 +19651,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B116" s="6">
         <v>4025</v>
@@ -19600,7 +19672,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B117" s="6">
         <v>4026</v>
@@ -19621,7 +19693,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B118" s="6">
         <v>4016</v>
@@ -19642,7 +19714,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B119" s="6">
         <v>4015</v>
@@ -19663,7 +19735,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B120" s="6">
         <v>4038</v>
@@ -19684,7 +19756,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B121" s="6">
         <v>4037</v>
@@ -19705,7 +19777,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -19726,7 +19798,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -19747,7 +19819,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B124" s="6">
         <v>4040</v>
@@ -19768,7 +19840,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B125" s="6">
         <v>4039</v>
@@ -19789,7 +19861,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B126" s="6">
         <v>4016</v>
@@ -19810,7 +19882,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B127" s="6">
         <v>4015</v>
@@ -19831,7 +19903,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B128" s="6">
         <v>4038</v>
@@ -19852,7 +19924,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B129" s="6">
         <v>4037</v>
@@ -19873,7 +19945,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B130" s="6">
         <v>4024</v>
@@ -19894,7 +19966,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B131" s="6">
         <v>4023</v>
@@ -19915,7 +19987,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B132" s="6">
         <v>4040</v>
@@ -19936,7 +20008,7 @@
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B133" s="6">
         <v>4039</v>
@@ -19957,7 +20029,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B134" s="6">
         <v>4016</v>
@@ -19978,7 +20050,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B135" s="6">
         <v>4015</v>
@@ -19999,7 +20071,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B136" s="6">
         <v>4038</v>
@@ -20020,7 +20092,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B137" s="6">
         <v>4037</v>
@@ -20041,7 +20113,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B138" s="6">
         <v>4024</v>
@@ -20063,7 +20135,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B139" s="6">
         <v>4023</v>
@@ -20085,7 +20157,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B140" s="6">
         <v>4040</v>
@@ -20107,7 +20179,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B141" s="6">
         <v>4039</v>
@@ -20129,7 +20201,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B142" s="6">
         <v>4016</v>
@@ -20152,7 +20224,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B143" s="6">
         <v>4015</v>
@@ -20176,7 +20248,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B144" s="6">
         <v>4038</v>
@@ -20202,7 +20274,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B145" s="6">
         <v>4037</v>
@@ -20225,7 +20297,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B146" s="6">
         <v>4024</v>
@@ -20248,7 +20320,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B147" s="6">
         <v>4023</v>
@@ -20478,26 +20550,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A165:G169 C3:G164">
-    <cfRule type="expression" dxfId="164" priority="25">
+    <cfRule type="expression" dxfId="172" priority="25">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="26">
+    <cfRule type="expression" dxfId="171" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="27">
+    <cfRule type="expression" dxfId="170" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B164">
-    <cfRule type="expression" dxfId="161" priority="23">
+    <cfRule type="expression" dxfId="169" priority="23">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="24">
+    <cfRule type="expression" dxfId="168" priority="24">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G164">
-    <cfRule type="expression" dxfId="159" priority="21">
+    <cfRule type="expression" dxfId="167" priority="21">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20674,7 +20746,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B4" s="6">
         <v>4032</v>
@@ -20708,7 +20780,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="6">
         <v>4007</v>
@@ -20745,7 +20817,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B6" s="6">
         <v>4017</v>
@@ -20763,7 +20835,7 @@
         <v>2.156249999825377E-2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>15</v>
@@ -20784,7 +20856,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B7" s="6">
         <v>4025</v>
@@ -20802,7 +20874,7 @@
         <v>2.3587962961755693E-2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>9</v>
@@ -20823,7 +20895,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B8" s="6">
         <v>4030</v>
@@ -20860,7 +20932,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B9" s="6">
         <v>4016</v>
@@ -20896,7 +20968,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B10" s="6">
         <v>4015</v>
@@ -20917,7 +20989,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B11" s="6">
         <v>4040</v>
@@ -20938,7 +21010,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B12" s="6">
         <v>4039</v>
@@ -20959,7 +21031,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B13" s="6">
         <v>4014</v>
@@ -20980,7 +21052,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B14" s="6">
         <v>4013</v>
@@ -21001,7 +21073,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B15" s="6">
         <v>4031</v>
@@ -21022,7 +21094,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B16" s="6">
         <v>4032</v>
@@ -21043,7 +21115,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B17" s="6">
         <v>4007</v>
@@ -21064,7 +21136,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B18" s="6">
         <v>4008</v>
@@ -21085,7 +21157,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B19" s="6">
         <v>4018</v>
@@ -21106,7 +21178,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B20" s="6">
         <v>4017</v>
@@ -21127,7 +21199,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B21" s="6">
         <v>4029</v>
@@ -21148,7 +21220,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B22" s="6">
         <v>4030</v>
@@ -21171,7 +21243,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B23" s="6">
         <v>4016</v>
@@ -21192,7 +21264,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B24" s="6">
         <v>4015</v>
@@ -21213,7 +21285,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B25" s="6">
         <v>4040</v>
@@ -21234,7 +21306,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B26" s="6">
         <v>4039</v>
@@ -21252,12 +21324,12 @@
         <v>1.6365740746550728E-2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B27" s="6">
         <v>4014</v>
@@ -21278,7 +21350,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B28" s="6">
         <v>4013</v>
@@ -21299,7 +21371,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B29" s="6">
         <v>4031</v>
@@ -21320,7 +21392,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B30" s="6">
         <v>4032</v>
@@ -21341,7 +21413,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B31" s="6">
         <v>4007</v>
@@ -21362,7 +21434,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B32" s="6">
         <v>4008</v>
@@ -21383,7 +21455,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B33" s="6">
         <v>4018</v>
@@ -21404,7 +21476,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B34" s="6">
         <v>4017</v>
@@ -21425,7 +21497,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B35" s="6">
         <v>4024</v>
@@ -21446,7 +21518,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B36" s="6">
         <v>4023</v>
@@ -21467,7 +21539,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B37" s="6">
         <v>4016</v>
@@ -21488,7 +21560,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B38" s="6">
         <v>4015</v>
@@ -21509,7 +21581,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B39" s="6">
         <v>4040</v>
@@ -21530,7 +21602,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B40" s="6">
         <v>4039</v>
@@ -21551,7 +21623,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B41" s="6">
         <v>4014</v>
@@ -21572,7 +21644,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B42" s="6">
         <v>4013</v>
@@ -21593,7 +21665,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B43" s="6">
         <v>4031</v>
@@ -21614,7 +21686,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B44" s="6">
         <v>4032</v>
@@ -21635,7 +21707,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B45" s="6">
         <v>4007</v>
@@ -21656,7 +21728,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B46" s="6">
         <v>4008</v>
@@ -21677,7 +21749,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B47" s="6">
         <v>4018</v>
@@ -21698,7 +21770,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B48" s="6">
         <v>4017</v>
@@ -21719,7 +21791,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B49" s="6">
         <v>4024</v>
@@ -21740,7 +21812,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B50" s="6">
         <v>4023</v>
@@ -21761,7 +21833,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B51" s="6">
         <v>4016</v>
@@ -21782,7 +21854,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B52" s="6">
         <v>4015</v>
@@ -21803,7 +21875,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B53" s="6">
         <v>4040</v>
@@ -21824,7 +21896,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B54" s="6">
         <v>4039</v>
@@ -21845,7 +21917,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B55" s="6">
         <v>4014</v>
@@ -21866,7 +21938,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B56" s="6">
         <v>4013</v>
@@ -21887,7 +21959,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B57" s="6">
         <v>4031</v>
@@ -21908,7 +21980,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B58" s="6">
         <v>4032</v>
@@ -21929,7 +22001,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B59" s="6">
         <v>4007</v>
@@ -21950,7 +22022,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B60" s="6">
         <v>4008</v>
@@ -21971,7 +22043,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B61" s="6">
         <v>4018</v>
@@ -21992,7 +22064,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B62" s="6">
         <v>4017</v>
@@ -22013,7 +22085,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B63" s="6">
         <v>4024</v>
@@ -22034,7 +22106,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B64" s="6">
         <v>4023</v>
@@ -22055,7 +22127,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B65" s="6">
         <v>4016</v>
@@ -22076,7 +22148,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B66" s="6">
         <v>4015</v>
@@ -22097,7 +22169,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B67" s="6">
         <v>4040</v>
@@ -22118,7 +22190,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B68" s="6">
         <v>4039</v>
@@ -22139,7 +22211,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B69" s="6">
         <v>4014</v>
@@ -22160,7 +22232,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B70" s="6">
         <v>4013</v>
@@ -22181,7 +22253,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B71" s="6">
         <v>4031</v>
@@ -22202,7 +22274,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B72" s="6">
         <v>4032</v>
@@ -22223,7 +22295,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B73" s="6">
         <v>4007</v>
@@ -22244,7 +22316,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B74" s="6">
         <v>4008</v>
@@ -22265,7 +22337,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B75" s="6">
         <v>4018</v>
@@ -22286,7 +22358,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B76" s="6">
         <v>4017</v>
@@ -22307,7 +22379,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B77" s="6">
         <v>4024</v>
@@ -22328,7 +22400,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B78" s="6">
         <v>4023</v>
@@ -22349,7 +22421,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B79" s="6">
         <v>4016</v>
@@ -22370,7 +22442,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B80" s="6">
         <v>4015</v>
@@ -22391,7 +22463,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B81" s="6">
         <v>4040</v>
@@ -22412,7 +22484,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B82" s="6">
         <v>4039</v>
@@ -22433,7 +22505,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B83" s="6">
         <v>4014</v>
@@ -22454,7 +22526,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B84" s="6">
         <v>4013</v>
@@ -22475,7 +22547,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B85" s="6">
         <v>4031</v>
@@ -22496,7 +22568,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B86" s="6">
         <v>4032</v>
@@ -22517,7 +22589,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B87" s="6">
         <v>4007</v>
@@ -22538,7 +22610,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B88" s="6">
         <v>4008</v>
@@ -22559,7 +22631,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B89" s="6">
         <v>4018</v>
@@ -22580,7 +22652,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B90" s="6">
         <v>4017</v>
@@ -22601,7 +22673,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B91" s="6">
         <v>4024</v>
@@ -22622,7 +22694,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B92" s="6">
         <v>4023</v>
@@ -22643,7 +22715,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B93" s="6">
         <v>4016</v>
@@ -22664,7 +22736,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B94" s="6">
         <v>4015</v>
@@ -22685,7 +22757,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B95" s="6">
         <v>4040</v>
@@ -22706,7 +22778,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B96" s="6">
         <v>4039</v>
@@ -22727,7 +22799,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B97" s="6">
         <v>4014</v>
@@ -22748,7 +22820,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B98" s="6">
         <v>4013</v>
@@ -22769,7 +22841,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B99" s="6">
         <v>4031</v>
@@ -22790,7 +22862,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B100" s="6">
         <v>4032</v>
@@ -22811,7 +22883,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B101" s="6">
         <v>4007</v>
@@ -22834,7 +22906,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B102" s="6">
         <v>4008</v>
@@ -22855,7 +22927,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B103" s="6">
         <v>4018</v>
@@ -22876,7 +22948,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B104" s="6">
         <v>4017</v>
@@ -22897,7 +22969,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B105" s="6">
         <v>4024</v>
@@ -22918,7 +22990,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B106" s="6">
         <v>4023</v>
@@ -22939,7 +23011,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B107" s="6">
         <v>4016</v>
@@ -22960,7 +23032,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B108" s="6">
         <v>4015</v>
@@ -22981,7 +23053,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B109" s="6">
         <v>4040</v>
@@ -23002,7 +23074,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B110" s="6">
         <v>4039</v>
@@ -23020,12 +23092,12 @@
         <v>1.7835648148320615E-2</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B111" s="6">
         <v>4014</v>
@@ -23046,7 +23118,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B112" s="6">
         <v>4013</v>
@@ -23067,7 +23139,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B113" s="6">
         <v>4031</v>
@@ -23088,7 +23160,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B114" s="6">
         <v>4032</v>
@@ -23109,7 +23181,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B115" s="6">
         <v>4029</v>
@@ -23130,7 +23202,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B116" s="6">
         <v>4030</v>
@@ -23151,7 +23223,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B117" s="6">
         <v>4018</v>
@@ -23172,7 +23244,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B118" s="6">
         <v>4017</v>
@@ -23193,7 +23265,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B119" s="6">
         <v>4024</v>
@@ -23214,7 +23286,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B120" s="6">
         <v>4023</v>
@@ -23235,7 +23307,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B121" s="6">
         <v>4016</v>
@@ -23256,7 +23328,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B122" s="6">
         <v>4015</v>
@@ -23277,7 +23349,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B123" s="6">
         <v>4014</v>
@@ -23298,7 +23370,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B124" s="6">
         <v>4013</v>
@@ -23319,7 +23391,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B125" s="6">
         <v>4029</v>
@@ -23340,7 +23412,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B126" s="6">
         <v>4030</v>
@@ -23361,7 +23433,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B127" s="6">
         <v>4024</v>
@@ -23382,7 +23454,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B128" s="6">
         <v>4023</v>
@@ -23400,12 +23472,12 @@
         <v>1.1585648149775807E-2</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B129" s="6">
         <v>4016</v>
@@ -23426,7 +23498,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B130" s="6">
         <v>4015</v>
@@ -23444,12 +23516,12 @@
         <v>1.1481481480586808E-2</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B131" s="6">
         <v>4014</v>
@@ -23467,12 +23539,12 @@
         <v>8.2523148157633841E-3</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B132" s="6">
         <v>4029</v>
@@ -23490,12 +23562,12 @@
         <v>2.2418981476221234E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B133" s="6">
         <v>4007</v>
@@ -23513,12 +23585,12 @@
         <v>5.7870370073942468E-4</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B134" s="6">
         <v>4030</v>
@@ -23539,7 +23611,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B135" s="6">
         <v>4024</v>
@@ -23560,7 +23632,7 @@
     </row>
     <row r="136" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B136" s="6">
         <v>4008</v>
@@ -23581,7 +23653,7 @@
     </row>
     <row r="137" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B137" s="6">
         <v>4016</v>
@@ -23602,7 +23674,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B138" s="6">
         <v>4023</v>
@@ -23624,7 +23696,7 @@
     </row>
     <row r="139" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B139" s="6">
         <v>4014</v>
@@ -23646,7 +23718,7 @@
     </row>
     <row r="140" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B140" s="6">
         <v>4015</v>
@@ -23668,7 +23740,7 @@
     </row>
     <row r="141" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B141" s="6">
         <v>4029</v>
@@ -23690,7 +23762,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B142" s="6">
         <v>4013</v>
@@ -23713,7 +23785,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B143" s="6">
         <v>4007</v>
@@ -23737,7 +23809,7 @@
     </row>
     <row r="144" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B144" s="6">
         <v>4030</v>
@@ -23913,82 +23985,82 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="157" priority="5">
+    <cfRule type="expression" dxfId="165" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="7">
+    <cfRule type="expression" dxfId="163" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="154" priority="3">
+    <cfRule type="expression" dxfId="162" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="152" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="151" priority="141">
+    <cfRule type="expression" dxfId="159" priority="141">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="142">
+    <cfRule type="expression" dxfId="158" priority="142">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="149" priority="153">
+    <cfRule type="expression" dxfId="157" priority="153">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="154">
+    <cfRule type="expression" dxfId="156" priority="154">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="147" priority="166">
+    <cfRule type="expression" dxfId="155" priority="166">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="167">
+    <cfRule type="expression" dxfId="154" priority="167">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="145" priority="180">
+    <cfRule type="expression" dxfId="153" priority="180">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="181">
+    <cfRule type="expression" dxfId="152" priority="181">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="143" priority="194">
+    <cfRule type="expression" dxfId="151" priority="194">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="195">
+    <cfRule type="expression" dxfId="150" priority="195">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="141" priority="208">
+    <cfRule type="expression" dxfId="149" priority="208">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="209">
+    <cfRule type="expression" dxfId="148" priority="209">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="139" priority="222">
+    <cfRule type="expression" dxfId="147" priority="222">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="223">
+    <cfRule type="expression" dxfId="146" priority="223">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24226,7 +24298,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B3" s="6">
         <v>4011</v>
@@ -24258,7 +24330,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B4" s="6">
         <v>4019</v>
@@ -24294,7 +24366,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B5" s="6">
         <v>4031</v>
@@ -24333,7 +24405,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B6" s="6">
         <v>4010</v>
@@ -24372,7 +24444,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B7" s="6">
         <v>4040</v>
@@ -24411,7 +24483,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B8" s="6">
         <v>4043</v>
@@ -24450,7 +24522,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B9" s="6">
         <v>4024</v>
@@ -24488,7 +24560,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B10" s="6">
         <v>4023</v>
@@ -24511,7 +24583,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B11" s="6">
         <v>4016</v>
@@ -24534,7 +24606,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B12" s="6">
         <v>4015</v>
@@ -24557,7 +24629,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B13" s="6">
         <v>4011</v>
@@ -24580,7 +24652,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B14" s="6">
         <v>4012</v>
@@ -24603,7 +24675,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B15" s="6">
         <v>4020</v>
@@ -24626,7 +24698,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B16" s="6">
         <v>4019</v>
@@ -24649,7 +24721,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B17" s="6">
         <v>4031</v>
@@ -24672,7 +24744,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B18" s="6">
         <v>4032</v>
@@ -24695,7 +24767,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B19" s="6">
         <v>4009</v>
@@ -24718,7 +24790,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B20" s="6">
         <v>4010</v>
@@ -24741,7 +24813,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B21" s="6">
         <v>4040</v>
@@ -24764,7 +24836,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B22" s="6">
         <v>4039</v>
@@ -24787,7 +24859,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B23" s="6">
         <v>4024</v>
@@ -24810,7 +24882,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B24" s="6">
         <v>4023</v>
@@ -24833,7 +24905,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B25" s="6">
         <v>4016</v>
@@ -24856,7 +24928,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B26" s="6">
         <v>4015</v>
@@ -24879,7 +24951,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B27" s="6">
         <v>4011</v>
@@ -24902,7 +24974,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B28" s="6">
         <v>4012</v>
@@ -24925,7 +24997,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B29" s="6">
         <v>4020</v>
@@ -24948,7 +25020,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B30" s="6">
         <v>4019</v>
@@ -24971,7 +25043,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B31" s="6">
         <v>4031</v>
@@ -24994,7 +25066,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B32" s="6">
         <v>4032</v>
@@ -25017,7 +25089,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B33" s="6">
         <v>4009</v>
@@ -25040,7 +25112,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B34" s="6">
         <v>4010</v>
@@ -25063,7 +25135,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B35" s="6">
         <v>4040</v>
@@ -25086,7 +25158,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B36" s="6">
         <v>4039</v>
@@ -25109,7 +25181,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B37" s="6">
         <v>4024</v>
@@ -25132,7 +25204,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B38" s="6">
         <v>4023</v>
@@ -25155,7 +25227,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B39" s="6">
         <v>4016</v>
@@ -25178,7 +25250,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B40" s="6">
         <v>4015</v>
@@ -25201,7 +25273,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B41" s="6">
         <v>4011</v>
@@ -25224,7 +25296,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B42" s="6">
         <v>4012</v>
@@ -25247,7 +25319,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B43" s="6">
         <v>4020</v>
@@ -25270,7 +25342,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B44" s="6">
         <v>4019</v>
@@ -25293,7 +25365,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B45" s="6">
         <v>4031</v>
@@ -25316,7 +25388,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B46" s="6">
         <v>4032</v>
@@ -25339,7 +25411,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B47" s="6">
         <v>4009</v>
@@ -25362,7 +25434,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B48" s="6">
         <v>4010</v>
@@ -25385,7 +25457,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B49" s="6">
         <v>4040</v>
@@ -25408,7 +25480,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B50" s="6">
         <v>4039</v>
@@ -25431,7 +25503,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B51" s="6">
         <v>4024</v>
@@ -25454,7 +25526,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B52" s="6">
         <v>4023</v>
@@ -25477,7 +25549,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B53" s="6">
         <v>4016</v>
@@ -25500,7 +25572,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B54" s="6">
         <v>4015</v>
@@ -25523,7 +25595,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B55" s="6">
         <v>4011</v>
@@ -25546,7 +25618,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B56" s="6">
         <v>4012</v>
@@ -25569,7 +25641,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B57" s="6">
         <v>4020</v>
@@ -25592,7 +25664,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B58" s="6">
         <v>4019</v>
@@ -25615,7 +25687,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B59" s="6">
         <v>4031</v>
@@ -25638,7 +25710,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B60" s="6">
         <v>4032</v>
@@ -25661,7 +25733,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B61" s="6">
         <v>4009</v>
@@ -25684,7 +25756,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B62" s="6">
         <v>4010</v>
@@ -25707,7 +25779,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B63" s="6">
         <v>4040</v>
@@ -25730,7 +25802,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B64" s="6">
         <v>4039</v>
@@ -25753,7 +25825,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B65" s="6">
         <v>4024</v>
@@ -25776,7 +25848,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B66" s="6">
         <v>4023</v>
@@ -25799,7 +25871,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B67" s="6">
         <v>4016</v>
@@ -25822,7 +25894,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B68" s="6">
         <v>4015</v>
@@ -25845,7 +25917,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B69" s="6">
         <v>4011</v>
@@ -25868,7 +25940,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B70" s="6">
         <v>4012</v>
@@ -25891,7 +25963,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B71" s="6">
         <v>4020</v>
@@ -25914,7 +25986,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B72" s="6">
         <v>4019</v>
@@ -25937,7 +26009,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B73" s="6">
         <v>4031</v>
@@ -25960,7 +26032,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B74" s="6">
         <v>4032</v>
@@ -25983,7 +26055,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B75" s="6">
         <v>4009</v>
@@ -26006,7 +26078,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B76" s="6">
         <v>4010</v>
@@ -26029,7 +26101,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B77" s="6">
         <v>4040</v>
@@ -26052,7 +26124,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B78" s="6">
         <v>4039</v>
@@ -26075,7 +26147,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B79" s="6">
         <v>4024</v>
@@ -26098,7 +26170,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B80" s="6">
         <v>4023</v>
@@ -26121,7 +26193,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B81" s="6">
         <v>4016</v>
@@ -26144,7 +26216,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B82" s="6">
         <v>4015</v>
@@ -26167,7 +26239,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B83" s="6">
         <v>4011</v>
@@ -26190,7 +26262,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B84" s="6">
         <v>4012</v>
@@ -26213,7 +26285,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B85" s="6">
         <v>4020</v>
@@ -26236,7 +26308,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B86" s="6">
         <v>4019</v>
@@ -26259,7 +26331,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B87" s="6">
         <v>4031</v>
@@ -26282,7 +26354,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B88" s="6">
         <v>4032</v>
@@ -26305,7 +26377,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B89" s="6">
         <v>4009</v>
@@ -26328,7 +26400,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B90" s="6">
         <v>4010</v>
@@ -26351,7 +26423,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B91" s="6">
         <v>4039</v>
@@ -26374,7 +26446,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B92" s="6">
         <v>4024</v>
@@ -26397,7 +26469,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B93" s="6">
         <v>4023</v>
@@ -26420,7 +26492,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B94" s="6">
         <v>4016</v>
@@ -26443,7 +26515,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B95" s="6">
         <v>4015</v>
@@ -26466,7 +26538,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B96" s="6">
         <v>4011</v>
@@ -26489,7 +26561,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B97" s="6">
         <v>4012</v>
@@ -26512,7 +26584,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B98" s="6">
         <v>4020</v>
@@ -26535,7 +26607,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B99" s="6">
         <v>4019</v>
@@ -26558,7 +26630,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B100" s="6">
         <v>4031</v>
@@ -26581,7 +26653,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B101" s="6">
         <v>4032</v>
@@ -26604,7 +26676,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B102" s="6">
         <v>4009</v>
@@ -26627,7 +26699,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B103" s="6">
         <v>4010</v>
@@ -26650,7 +26722,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B104" s="6">
         <v>4044</v>
@@ -26673,7 +26745,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B105" s="6">
         <v>4043</v>
@@ -26696,7 +26768,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B106" s="6">
         <v>4024</v>
@@ -26719,7 +26791,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B107" s="6">
         <v>4023</v>
@@ -26742,7 +26814,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B108" s="6">
         <v>4016</v>
@@ -26765,7 +26837,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B109" s="6">
         <v>4015</v>
@@ -26788,7 +26860,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B110" s="6">
         <v>4011</v>
@@ -26811,7 +26883,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B111" s="6">
         <v>4012</v>
@@ -26834,7 +26906,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B112" s="6">
         <v>4020</v>
@@ -26857,7 +26929,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B113" s="6">
         <v>4019</v>
@@ -26880,7 +26952,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B114" s="6">
         <v>4031</v>
@@ -26903,7 +26975,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B115" s="6">
         <v>4032</v>
@@ -26926,7 +26998,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B116" s="6">
         <v>4009</v>
@@ -26949,7 +27021,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B117" s="6">
         <v>4010</v>
@@ -26972,7 +27044,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B118" s="6">
         <v>4044</v>
@@ -26995,7 +27067,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B119" s="6">
         <v>4043</v>
@@ -27018,7 +27090,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B120" s="6">
         <v>4024</v>
@@ -27041,7 +27113,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B121" s="6">
         <v>4023</v>
@@ -27064,7 +27136,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B122" s="6">
         <v>4011</v>
@@ -27087,7 +27159,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B123" s="6">
         <v>4012</v>
@@ -27111,7 +27183,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B124" s="6">
         <v>4029</v>
@@ -27134,7 +27206,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B125" s="6">
         <v>4030</v>
@@ -27159,7 +27231,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B126" s="6">
         <v>4044</v>
@@ -27182,7 +27254,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B127" s="6">
         <v>4043</v>
@@ -27205,7 +27277,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B128" s="6">
         <v>4024</v>
@@ -27228,7 +27300,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B129" s="6">
         <v>4023</v>
@@ -27248,12 +27320,12 @@
         <v>5.7997685187729076E-2</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B130" s="6">
         <v>4011</v>
@@ -27276,7 +27348,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B131" s="6">
         <v>4012</v>
@@ -27299,7 +27371,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B132" s="6">
         <v>4031</v>
@@ -27319,12 +27391,12 @@
         <v>5.0937500003783498E-2</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B133" s="6">
         <v>4044</v>
@@ -27343,12 +27415,12 @@
         <v>4.0034722216660157E-2</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B134" s="6">
         <v>4024</v>
@@ -27368,12 +27440,12 @@
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B135" s="6">
         <v>4011</v>
@@ -27623,98 +27695,98 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A153:G157 C3:G152">
-    <cfRule type="expression" dxfId="129" priority="5">
+    <cfRule type="expression" dxfId="137" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="136" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="7">
+    <cfRule type="expression" dxfId="135" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="126" priority="3">
+    <cfRule type="expression" dxfId="134" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="4">
+    <cfRule type="expression" dxfId="133" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G152">
-    <cfRule type="expression" dxfId="124" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110 A121:B123">
-    <cfRule type="expression" dxfId="123" priority="8">
+    <cfRule type="expression" dxfId="131" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="9">
+    <cfRule type="expression" dxfId="130" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="121" priority="11">
+    <cfRule type="expression" dxfId="129" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="128" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B119 A124:B127">
-    <cfRule type="expression" dxfId="119" priority="14">
+    <cfRule type="expression" dxfId="127" priority="14">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="15">
+    <cfRule type="expression" dxfId="126" priority="15">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B130">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="125" priority="17">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="18">
+    <cfRule type="expression" dxfId="124" priority="18">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B131">
-    <cfRule type="expression" dxfId="115" priority="20">
+    <cfRule type="expression" dxfId="123" priority="20">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="21">
+    <cfRule type="expression" dxfId="122" priority="21">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="113" priority="23">
+    <cfRule type="expression" dxfId="121" priority="23">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="24">
+    <cfRule type="expression" dxfId="120" priority="24">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B152">
-    <cfRule type="expression" dxfId="111" priority="26">
+    <cfRule type="expression" dxfId="119" priority="26">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="27">
+    <cfRule type="expression" dxfId="118" priority="27">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="109" priority="240">
+    <cfRule type="expression" dxfId="117" priority="240">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="241">
+    <cfRule type="expression" dxfId="116" priority="241">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="107" priority="256">
+    <cfRule type="expression" dxfId="115" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="257">
+    <cfRule type="expression" dxfId="114" priority="257">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27991,7 +28063,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B3" s="6">
         <v>4016</v>
@@ -28023,7 +28095,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B4" s="6">
         <v>4019</v>
@@ -28059,7 +28131,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B5" s="6">
         <v>4010</v>
@@ -28079,7 +28151,7 @@
         <v>1.2939814812853001E-2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>7</v>
@@ -28100,7 +28172,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B6" s="6">
         <v>4026</v>
@@ -28120,7 +28192,7 @@
         <v>6.2731481448281556E-3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>15</v>
@@ -28141,7 +28213,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B7" s="6">
         <v>4011</v>
@@ -28180,7 +28252,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B8" s="6">
         <v>4012</v>
@@ -28219,7 +28291,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B9" s="6">
         <v>4044</v>
@@ -28257,7 +28329,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B10" s="6">
         <v>4043</v>
@@ -28280,7 +28352,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B11" s="6">
         <v>4016</v>
@@ -28303,7 +28375,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B12" s="6">
         <v>4015</v>
@@ -28326,7 +28398,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B13" s="6">
         <v>4020</v>
@@ -28349,7 +28421,7 @@
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B14" s="6">
         <v>4019</v>
@@ -28372,7 +28444,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B15" s="6">
         <v>4042</v>
@@ -28395,7 +28467,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B16" s="6">
         <v>4041</v>
@@ -28418,7 +28490,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B17" s="6">
         <v>4009</v>
@@ -28441,7 +28513,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B18" s="6">
         <v>4010</v>
@@ -28464,7 +28536,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B19" s="6">
         <v>4023</v>
@@ -28487,7 +28559,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B20" s="6">
         <v>4011</v>
@@ -28510,7 +28582,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B21" s="6">
         <v>4012</v>
@@ -28533,7 +28605,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B22" s="6">
         <v>4044</v>
@@ -28556,7 +28628,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B23" s="6">
         <v>4043</v>
@@ -28579,7 +28651,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B24" s="6">
         <v>4016</v>
@@ -28602,7 +28674,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B25" s="6">
         <v>4015</v>
@@ -28625,7 +28697,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B26" s="6">
         <v>4020</v>
@@ -28648,7 +28720,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B27" s="6">
         <v>4019</v>
@@ -28671,7 +28743,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B28" s="6">
         <v>4025</v>
@@ -28694,7 +28766,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B29" s="6">
         <v>4026</v>
@@ -28717,7 +28789,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B30" s="6">
         <v>4009</v>
@@ -28740,7 +28812,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B31" s="6">
         <v>4010</v>
@@ -28763,7 +28835,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B32" s="6">
         <v>4024</v>
@@ -28788,7 +28860,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B33" s="6">
         <v>4023</v>
@@ -28811,7 +28883,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B34" s="6">
         <v>4011</v>
@@ -28834,7 +28906,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B35" s="6">
         <v>4012</v>
@@ -28857,7 +28929,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B36" s="6">
         <v>4044</v>
@@ -28880,7 +28952,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B37" s="6">
         <v>4043</v>
@@ -28903,7 +28975,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B38" s="6">
         <v>4016</v>
@@ -28926,7 +28998,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B39" s="6">
         <v>4015</v>
@@ -28949,7 +29021,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B40" s="6">
         <v>4020</v>
@@ -28972,7 +29044,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B41" s="6">
         <v>4019</v>
@@ -28995,7 +29067,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B42" s="6">
         <v>4025</v>
@@ -29018,7 +29090,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B43" s="6">
         <v>4026</v>
@@ -29041,7 +29113,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B44" s="6">
         <v>4009</v>
@@ -29060,12 +29132,12 @@
         <v>2.4398148147156462E-2</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B45" s="6">
         <v>4010</v>
@@ -29088,7 +29160,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B46" s="6">
         <v>4024</v>
@@ -29111,7 +29183,7 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B47" s="6">
         <v>4023</v>
@@ -29134,7 +29206,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B48" s="6">
         <v>4011</v>
@@ -29157,7 +29229,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B49" s="6">
         <v>4012</v>
@@ -29180,7 +29252,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B50" s="6">
         <v>4044</v>
@@ -29203,7 +29275,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B51" s="6">
         <v>4043</v>
@@ -29226,7 +29298,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B52" s="6">
         <v>4016</v>
@@ -29249,7 +29321,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B53" s="6">
         <v>4015</v>
@@ -29272,7 +29344,7 @@
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B54" s="6">
         <v>4020</v>
@@ -29295,7 +29367,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B55" s="6">
         <v>4019</v>
@@ -29318,7 +29390,7 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B56" s="6">
         <v>4025</v>
@@ -29341,7 +29413,7 @@
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B57" s="6">
         <v>4026</v>
@@ -29364,7 +29436,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B58" s="6">
         <v>4009</v>
@@ -29387,7 +29459,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B59" s="6">
         <v>4010</v>
@@ -29412,7 +29484,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B60" s="6">
         <v>4024</v>
@@ -29435,7 +29507,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B61" s="6">
         <v>4023</v>
@@ -29458,7 +29530,7 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B62" s="6">
         <v>4011</v>
@@ -29478,12 +29550,12 @@
         <v>1.3831018521159422E-2</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B63" s="6">
         <v>4012</v>
@@ -29506,7 +29578,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B64" s="6">
         <v>4044</v>
@@ -29529,7 +29601,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B65" s="6">
         <v>4043</v>
@@ -29552,7 +29624,7 @@
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B66" s="6">
         <v>4016</v>
@@ -29575,7 +29647,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B67" s="6">
         <v>4015</v>
@@ -29598,7 +29670,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B68" s="6">
         <v>4020</v>
@@ -29621,7 +29693,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B69" s="6">
         <v>4019</v>
@@ -29644,7 +29716,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B70" s="6">
         <v>4025</v>
@@ -29667,7 +29739,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B71" s="6">
         <v>4026</v>
@@ -29690,7 +29762,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B72" s="6">
         <v>4042</v>
@@ -29713,7 +29785,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B73" s="6">
         <v>4041</v>
@@ -29736,7 +29808,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B74" s="6">
         <v>4024</v>
@@ -29759,7 +29831,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B75" s="6">
         <v>4023</v>
@@ -29782,7 +29854,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B76" s="6">
         <v>4011</v>
@@ -29805,7 +29877,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B77" s="6">
         <v>4012</v>
@@ -29828,7 +29900,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B78" s="6">
         <v>4044</v>
@@ -29851,7 +29923,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B79" s="6">
         <v>4043</v>
@@ -29874,7 +29946,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B80" s="6">
         <v>4016</v>
@@ -29897,7 +29969,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B81" s="6">
         <v>4015</v>
@@ -29920,7 +29992,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B82" s="6">
         <v>4020</v>
@@ -29943,7 +30015,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B83" s="6">
         <v>4019</v>
@@ -29966,7 +30038,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B84" s="6">
         <v>4025</v>
@@ -29989,7 +30061,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B85" s="6">
         <v>4026</v>
@@ -30012,7 +30084,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B86" s="6">
         <v>4042</v>
@@ -30035,7 +30107,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B87" s="6">
         <v>4041</v>
@@ -30058,7 +30130,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B88" s="6">
         <v>4024</v>
@@ -30081,7 +30153,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B89" s="6">
         <v>4023</v>
@@ -30104,7 +30176,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B90" s="6">
         <v>4011</v>
@@ -30127,7 +30199,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B91" s="6">
         <v>4012</v>
@@ -30150,7 +30222,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B92" s="6">
         <v>4044</v>
@@ -30173,7 +30245,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B93" s="6">
         <v>4043</v>
@@ -30196,7 +30268,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B94" s="6">
         <v>4016</v>
@@ -30219,7 +30291,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B95" s="6">
         <v>4015</v>
@@ -30242,7 +30314,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B96" s="6">
         <v>4020</v>
@@ -30265,7 +30337,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B97" s="6">
         <v>4019</v>
@@ -30288,7 +30360,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B98" s="6">
         <v>4025</v>
@@ -30311,7 +30383,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B99" s="6">
         <v>4026</v>
@@ -30334,7 +30406,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B100" s="6">
         <v>4042</v>
@@ -30357,7 +30429,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B101" s="6">
         <v>4041</v>
@@ -30380,7 +30452,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B102" s="6">
         <v>4024</v>
@@ -30399,12 +30471,12 @@
         <v>3.1863425923802424E-2</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B103" s="6">
         <v>4023</v>
@@ -30427,7 +30499,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B104" s="6">
         <v>4011</v>
@@ -30450,7 +30522,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B105" s="6">
         <v>4012</v>
@@ -30473,7 +30545,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B106" s="6">
         <v>4044</v>
@@ -30496,7 +30568,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B107" s="6">
         <v>4043</v>
@@ -30519,7 +30591,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B108" s="6">
         <v>4016</v>
@@ -30542,7 +30614,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B109" s="6">
         <v>4015</v>
@@ -30565,7 +30637,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B110" s="6">
         <v>4020</v>
@@ -30588,7 +30660,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B111" s="6">
         <v>4019</v>
@@ -30611,7 +30683,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B112" s="6">
         <v>4025</v>
@@ -30634,7 +30706,7 @@
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B113" s="6">
         <v>4026</v>
@@ -30657,7 +30729,7 @@
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B114" s="6">
         <v>4042</v>
@@ -30680,7 +30752,7 @@
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B115" s="6">
         <v>4041</v>
@@ -30703,7 +30775,7 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B116" s="6">
         <v>4024</v>
@@ -30726,7 +30798,7 @@
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B117" s="6">
         <v>4023</v>
@@ -30749,7 +30821,7 @@
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B118" s="6">
         <v>4011</v>
@@ -30772,7 +30844,7 @@
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B119" s="6">
         <v>4012</v>
@@ -30794,7 +30866,7 @@
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B120" s="6">
         <v>4016</v>
@@ -30817,7 +30889,7 @@
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B121" s="6">
         <v>4015</v>
@@ -30840,7 +30912,7 @@
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B122" s="6">
         <v>4025</v>
@@ -30863,7 +30935,7 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B123" s="6">
         <v>4026</v>
@@ -30886,7 +30958,7 @@
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B124" s="6">
         <v>4024</v>
@@ -30909,7 +30981,7 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B125" s="6">
         <v>4023</v>
@@ -30932,7 +31004,7 @@
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B126" s="6">
         <v>4011</v>
@@ -30955,7 +31027,7 @@
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B127" s="6">
         <v>4012</v>
@@ -30978,7 +31050,7 @@
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B128" s="6">
         <v>4016</v>
@@ -31001,7 +31073,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B129" s="6">
         <v>4015</v>
@@ -31023,7 +31095,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B130" s="6">
         <v>4025</v>
@@ -31046,7 +31118,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B131" s="6">
         <v>4026</v>
@@ -31069,7 +31141,7 @@
     </row>
     <row r="132" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B132" s="6">
         <v>4024</v>
@@ -31093,7 +31165,7 @@
     </row>
     <row r="133" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B133" s="6">
         <v>4023</v>
@@ -31117,7 +31189,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B134" s="6">
         <v>4011</v>
@@ -31141,7 +31213,7 @@
     </row>
     <row r="135" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B135" s="6">
         <v>4012</v>
@@ -31165,7 +31237,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B136" s="6">
         <v>4016</v>
@@ -31190,7 +31262,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B137" s="6">
         <v>4015</v>
@@ -31216,7 +31288,7 @@
     </row>
     <row r="138" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B138" s="6">
         <v>4025</v>
@@ -31244,7 +31316,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B139" s="6">
         <v>4026</v>
@@ -31269,7 +31341,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B140" s="6">
         <v>4024</v>
@@ -31294,7 +31366,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B141" s="6">
         <v>4023</v>
@@ -31319,7 +31391,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B142" s="6">
         <v>4011</v>
@@ -31342,7 +31414,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B143" s="6">
         <v>4012</v>
@@ -31362,7 +31434,7 @@
         <v>3.1412037038535345E-2</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -31466,122 +31538,122 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A149:G153 C3:G148">
-    <cfRule type="expression" dxfId="94" priority="5">
+    <cfRule type="expression" dxfId="102" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="6">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="7">
+    <cfRule type="expression" dxfId="100" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="91" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G148">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119 A27:B41 A103:B106 A45:B45 A49:B99">
-    <cfRule type="expression" dxfId="88" priority="8">
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="95" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26 A43:B44 A101:B102">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="94" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="12">
+    <cfRule type="expression" dxfId="93" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B115 A120:B123">
-    <cfRule type="expression" dxfId="84" priority="14">
+    <cfRule type="expression" dxfId="92" priority="14">
       <formula>$P111&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="15">
+    <cfRule type="expression" dxfId="91" priority="15">
       <formula>$O111&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B126">
-    <cfRule type="expression" dxfId="82" priority="17">
+    <cfRule type="expression" dxfId="90" priority="17">
       <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="18">
+    <cfRule type="expression" dxfId="89" priority="18">
       <formula>$O130&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B127">
-    <cfRule type="expression" dxfId="80" priority="20">
+    <cfRule type="expression" dxfId="88" priority="20">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="87" priority="21">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="expression" dxfId="78" priority="23">
+    <cfRule type="expression" dxfId="86" priority="23">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="24">
+    <cfRule type="expression" dxfId="85" priority="24">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B148">
-    <cfRule type="expression" dxfId="76" priority="26">
+    <cfRule type="expression" dxfId="84" priority="26">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="27">
+    <cfRule type="expression" dxfId="83" priority="27">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:B116">
-    <cfRule type="expression" dxfId="74" priority="29">
+    <cfRule type="expression" dxfId="82" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="30">
+    <cfRule type="expression" dxfId="81" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="expression" dxfId="72" priority="33">
+    <cfRule type="expression" dxfId="80" priority="33">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="34">
+    <cfRule type="expression" dxfId="79" priority="34">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42 A100:B100">
-    <cfRule type="expression" dxfId="70" priority="275">
+    <cfRule type="expression" dxfId="78" priority="275">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="276">
+    <cfRule type="expression" dxfId="77" priority="276">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="expression" dxfId="68" priority="295">
+    <cfRule type="expression" dxfId="76" priority="295">
       <formula>$P49&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="296">
+    <cfRule type="expression" dxfId="75" priority="296">
       <formula>$O49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="66" priority="297">
+    <cfRule type="expression" dxfId="74" priority="297">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="298">
+    <cfRule type="expression" dxfId="73" priority="298">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31782,7 +31854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -31897,7 +31969,7 @@
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B3" s="6">
         <v>4044</v>
@@ -31929,7 +32001,7 @@
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B4" s="6">
         <v>4017</v>
@@ -31965,7 +32037,7 @@
     </row>
     <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B5" s="6">
         <v>4020</v>
@@ -32004,7 +32076,7 @@
     </row>
     <row r="6" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B6" s="6">
         <v>4008</v>
@@ -32043,7 +32115,7 @@
     </row>
     <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B7" s="6">
         <v>4038</v>
@@ -32082,7 +32154,7 @@
     </row>
     <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B8" s="6">
         <v>4041</v>
@@ -32121,7 +32193,7 @@
     </row>
     <row r="9" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B9" s="6">
         <v>4024</v>
@@ -32159,7 +32231,7 @@
     </row>
     <row r="10" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B10" s="6">
         <v>4023</v>
@@ -32182,7 +32254,7 @@
     </row>
     <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B11" s="6">
         <v>4025</v>
@@ -32205,7 +32277,7 @@
     </row>
     <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B12" s="6">
         <v>4026</v>
@@ -32228,7 +32300,7 @@
     </row>
     <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B13" s="6">
         <v>4044</v>
@@ -32248,12 +32320,12 @@
         <v>2.2430555553000886E-2</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="14" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B14" s="6">
         <v>4043</v>
@@ -32276,7 +32348,7 @@
     </row>
     <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B15" s="6">
         <v>4018</v>
@@ -32299,7 +32371,7 @@
     </row>
     <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B16" s="6">
         <v>4017</v>
@@ -32322,7 +32394,7 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B17" s="6">
         <v>4020</v>
@@ -32345,7 +32417,7 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B18" s="6">
         <v>4019</v>
@@ -32368,7 +32440,7 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B19" s="6">
         <v>4007</v>
@@ -32391,7 +32463,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B20" s="6">
         <v>4008</v>
@@ -32414,7 +32486,7 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B21" s="6">
         <v>4038</v>
@@ -32437,7 +32509,7 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B22" s="6">
         <v>4037</v>
@@ -32460,7 +32532,7 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B23" s="6">
         <v>4024</v>
@@ -32483,7 +32555,7 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B24" s="6">
         <v>4023</v>
@@ -32506,7 +32578,7 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B25" s="6">
         <v>4025</v>
@@ -32529,7 +32601,7 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B26" s="6">
         <v>4026</v>
@@ -32552,7 +32624,7 @@
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B27" s="6">
         <v>4044</v>
@@ -32575,7 +32647,7 @@
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B28" s="6">
         <v>4043</v>
@@ -32598,7 +32670,7 @@
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B29" s="6">
         <v>4018</v>
@@ -32621,7 +32693,7 @@
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B30" s="6">
         <v>4017</v>
@@ -32644,7 +32716,7 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B31" s="6">
         <v>4020</v>
@@ -32667,7 +32739,7 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B32" s="6">
         <v>4019</v>
@@ -32690,7 +32762,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B33" s="6">
         <v>4007</v>
@@ -32713,7 +32785,7 @@
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B34" s="6">
         <v>4008</v>
@@ -32736,7 +32808,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B35" s="6">
         <v>4038</v>
@@ -32759,7 +32831,7 @@
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B36" s="6">
         <v>4037</v>
@@ -32782,7 +32854,7 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B37" s="6">
         <v>4024</v>
@@ -32805,7 +32877,7 @@
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B38" s="6">
         <v>4023</v>
@@ -32828,7 +32900,7 @@
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B39" s="6">
         <v>4025</v>
@@ -32851,7 +32923,7 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B40" s="6">
         <v>4026</v>
@@ -32874,7 +32946,7 @@
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B41" s="6">
         <v>4042</v>
@@ -32897,7 +32969,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B42" s="6">
         <v>4041</v>
@@ -32920,7 +32992,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B43" s="6">
         <v>4018</v>
@@ -32942,7 +33014,7 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B44" s="6">
         <v>4017</v>
@@ -32965,7 +33037,7 @@
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B45" s="6">
         <v>4020</v>
@@ -32988,7 +33060,7 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B46" s="6">
         <v>4019</v>
@@ -33008,12 +33080,12 @@
         <v>2.5289351855462883E-2</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B47" s="6">
         <v>4019</v>
@@ -33036,7 +33108,7 @@
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B48" s="6">
         <v>4007</v>
@@ -33059,7 +33131,7 @@
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B49" s="6">
         <v>4008</v>
@@ -33082,7 +33154,7 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B50" s="6">
         <v>4038</v>
@@ -33105,7 +33177,7 @@
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B51" s="6">
         <v>4037</v>
@@ -33128,7 +33200,7 @@
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B52" s="6">
         <v>4024</v>
@@ -33151,7 +33223,7 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B53" s="6">
         <v>4023</v>
@@ -33170,12 +33242,12 @@
         <v>3.3773148148611654E-2</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B54" s="6">
         <v>4025</v>
@@ -33198,7 +33270,7 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B55" s="6">
         <v>4026</v>
@@ -33217,12 +33289,12 @@
         <v>2.5937500002328306E-2</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B56" s="6">
         <v>4042</v>
@@ -33242,12 +33314,12 @@
         <v>7.3032407381106168E-3</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B57" s="6">
         <v>4018</v>
@@ -33270,7 +33342,7 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B58" s="6">
         <v>4044</v>
@@ -33293,7 +33365,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B59" s="6">
         <v>4017</v>
@@ -33316,7 +33388,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B60" s="6">
         <v>4020</v>
@@ -33339,7 +33411,7 @@
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B61" s="6">
         <v>4043</v>
@@ -33358,12 +33430,12 @@
         <v>2.7743055557948537E-2</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B62" s="6">
         <v>4007</v>
@@ -33386,7 +33458,7 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B63" s="6">
         <v>4038</v>
@@ -33409,7 +33481,7 @@
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B64" s="6">
         <v>4024</v>
@@ -33432,7 +33504,7 @@
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B65" s="6">
         <v>4037</v>
@@ -33448,14 +33520,14 @@
         <v>4037/4038</v>
       </c>
       <c r="F65" s="15">
-        <f t="shared" ref="F65:F127" si="3">D65-C65</f>
+        <f t="shared" ref="F65:F124" si="3">D65-C65</f>
         <v>3.1979166669771075E-2</v>
       </c>
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B66" s="6">
         <v>4025</v>
@@ -33478,7 +33550,7 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B67" s="6">
         <v>4023</v>
@@ -33501,7 +33573,7 @@
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B68" s="6">
         <v>4026</v>
@@ -33524,7 +33596,7 @@
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B69" s="6">
         <v>4018</v>
@@ -33547,7 +33619,7 @@
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B70" s="6">
         <v>4017</v>
@@ -33570,7 +33642,7 @@
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B71" s="6">
         <v>4044</v>
@@ -33593,7 +33665,7 @@
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B72" s="6">
         <v>4043</v>
@@ -33616,7 +33688,7 @@
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B73" s="6">
         <v>4020</v>
@@ -33639,7 +33711,7 @@
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B74" s="6">
         <v>4019</v>
@@ -33662,7 +33734,7 @@
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B75" s="6">
         <v>4007</v>
@@ -33685,7 +33757,7 @@
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B76" s="6">
         <v>4008</v>
@@ -33708,7 +33780,7 @@
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B77" s="6">
         <v>4038</v>
@@ -33731,7 +33803,7 @@
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B78" s="6">
         <v>4037</v>
@@ -33754,7 +33826,7 @@
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B79" s="6">
         <v>4024</v>
@@ -33777,7 +33849,7 @@
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B80" s="6">
         <v>4023</v>
@@ -33800,7 +33872,7 @@
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B81" s="6">
         <v>4025</v>
@@ -33823,7 +33895,7 @@
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B82" s="6">
         <v>4026</v>
@@ -33846,7 +33918,7 @@
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B83" s="6">
         <v>4018</v>
@@ -33869,7 +33941,7 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B84" s="6">
         <v>4017</v>
@@ -33892,7 +33964,7 @@
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B85" s="6">
         <v>4044</v>
@@ -33915,7 +33987,7 @@
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B86" s="6">
         <v>4020</v>
@@ -33938,7 +34010,7 @@
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B87" s="6">
         <v>4007</v>
@@ -33961,7 +34033,7 @@
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B88" s="6">
         <v>4008</v>
@@ -33984,7 +34056,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B89" s="6">
         <v>4038</v>
@@ -34007,7 +34079,7 @@
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B90" s="6">
         <v>4037</v>
@@ -34030,7 +34102,7 @@
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B91" s="6">
         <v>4024</v>
@@ -34053,7 +34125,7 @@
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B92" s="6">
         <v>4023</v>
@@ -34076,7 +34148,7 @@
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B93" s="6">
         <v>4026</v>
@@ -34099,7 +34171,7 @@
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B94" s="6">
         <v>4018</v>
@@ -34122,7 +34194,7 @@
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B95" s="6">
         <v>4017</v>
@@ -34145,7 +34217,7 @@
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B96" s="6">
         <v>4040</v>
@@ -34168,7 +34240,7 @@
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B97" s="6">
         <v>4039</v>
@@ -34191,7 +34263,7 @@
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B98" s="6">
         <v>4020</v>
@@ -34213,7 +34285,7 @@
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B99" s="6">
         <v>4007</v>
@@ -34236,7 +34308,7 @@
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B100" s="6">
         <v>4008</v>
@@ -34259,7 +34331,7 @@
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B101" s="6">
         <v>4038</v>
@@ -34282,7 +34354,7 @@
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B102" s="6">
         <v>4037</v>
@@ -34305,7 +34377,7 @@
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B103" s="6">
         <v>4024</v>
@@ -34328,7 +34400,7 @@
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B104" s="6">
         <v>4023</v>
@@ -34351,7 +34423,7 @@
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B105" s="6">
         <v>4044</v>
@@ -34374,7 +34446,7 @@
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B106" s="6">
         <v>4018</v>
@@ -34397,7 +34469,7 @@
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B107" s="6">
         <v>4017</v>
@@ -34420,7 +34492,7 @@
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B108" s="6">
         <v>4040</v>
@@ -34443,7 +34515,7 @@
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B109" s="6">
         <v>4039</v>
@@ -34466,7 +34538,7 @@
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B110" s="6">
         <v>4020</v>
@@ -34489,7 +34561,7 @@
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B111" s="6">
         <v>4019</v>
@@ -34512,7 +34584,7 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B112" s="6">
         <v>4038</v>
@@ -34535,7 +34607,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B113" s="6">
         <v>4037</v>
@@ -34558,7 +34630,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B114" s="6">
         <v>4044</v>
@@ -34581,7 +34653,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B115" s="6">
         <v>4043</v>
@@ -34603,7 +34675,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B116" s="6">
         <v>4040</v>
@@ -34626,7 +34698,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B117" s="6">
         <v>4039</v>
@@ -34649,7 +34721,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B118" s="6">
         <v>4020</v>
@@ -34672,7 +34744,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B119" s="6">
         <v>4019</v>
@@ -34695,7 +34767,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B120" s="6">
         <v>4038</v>
@@ -34718,7 +34790,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B121" s="6">
         <v>4037</v>
@@ -34741,7 +34813,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B122" s="6">
         <v>4044</v>
@@ -34764,7 +34836,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B123" s="6">
         <v>4043</v>
@@ -34787,7 +34859,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B124" s="6">
         <v>4040</v>
@@ -34810,7 +34882,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B125" s="6">
         <v>4039</v>
@@ -34832,7 +34904,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B126" s="6">
         <v>4020</v>
@@ -34855,7 +34927,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B127" s="6">
         <v>4019</v>
@@ -34878,7 +34950,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B128" s="6">
         <v>4038</v>
@@ -34902,7 +34974,7 @@
     </row>
     <row r="129" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B129" s="6">
         <v>4037</v>
@@ -34926,7 +34998,7 @@
     </row>
     <row r="130" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B130" s="6">
         <v>4044</v>
@@ -34950,7 +35022,7 @@
     </row>
     <row r="131" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B131" s="6">
         <v>4043</v>
@@ -34974,7 +35046,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B132" s="6">
         <v>4040</v>
@@ -34999,7 +35071,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B133" s="6">
         <v>4039</v>
@@ -35025,7 +35097,7 @@
     </row>
     <row r="134" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B134" s="6">
         <v>4020</v>
@@ -35053,7 +35125,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B135" s="6">
         <v>4019</v>
@@ -35217,138 +35289,138 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G149 C3:G144">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G144">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:B115 A26:B40 A99:B102 A44:B44 A48:B50 A56:B58 A62:B95">
-    <cfRule type="expression" dxfId="44" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>$P29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>$O29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B43 A97:B98 A7:B11 A14:B25 A52:B55 A60:B61">
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B111 A116:B119">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>$P107&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>$O107&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B122">
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="46" priority="17">
       <formula>$P126&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="45" priority="18">
       <formula>$O126&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="expression" dxfId="36" priority="20">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>$O130&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>$P132&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="41" priority="24">
       <formula>$O132&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B144">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:B125">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41 A96:B96">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47 A13:B13">
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="32" priority="39">
       <formula>$P14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="40">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>$O14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="22" priority="41">
+    <cfRule type="expression" dxfId="30" priority="41">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="42">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="expression" dxfId="6" priority="319">
+    <cfRule type="expression" dxfId="28" priority="319">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="320">
+    <cfRule type="expression" dxfId="27" priority="320">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51 A59:B59">
-    <cfRule type="expression" dxfId="3" priority="341">
+    <cfRule type="expression" dxfId="26" priority="341">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="342">
+    <cfRule type="expression" dxfId="25" priority="342">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36674,145 +36746,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="302" priority="45">
+    <cfRule type="expression" dxfId="310" priority="45">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="46">
+    <cfRule type="expression" dxfId="309" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="47">
+    <cfRule type="expression" dxfId="308" priority="47">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="299" priority="42">
+    <cfRule type="expression" dxfId="307" priority="42">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="43">
+    <cfRule type="expression" dxfId="306" priority="43">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="44">
+    <cfRule type="expression" dxfId="305" priority="44">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="296" priority="40">
+    <cfRule type="expression" dxfId="304" priority="40">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="41">
+    <cfRule type="expression" dxfId="303" priority="41">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="294" priority="37">
+    <cfRule type="expression" dxfId="302" priority="37">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="38">
+    <cfRule type="expression" dxfId="301" priority="38">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="292" priority="34">
+    <cfRule type="expression" dxfId="300" priority="34">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="35">
+    <cfRule type="expression" dxfId="299" priority="35">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="290" priority="30">
+    <cfRule type="expression" dxfId="298" priority="30">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="31">
+    <cfRule type="expression" dxfId="297" priority="31">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="32">
+    <cfRule type="expression" dxfId="296" priority="32">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="287" priority="28">
+    <cfRule type="expression" dxfId="295" priority="28">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="29">
+    <cfRule type="expression" dxfId="294" priority="29">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="285" priority="24">
+    <cfRule type="expression" dxfId="293" priority="24">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="25">
+    <cfRule type="expression" dxfId="292" priority="25">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="26">
+    <cfRule type="expression" dxfId="291" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="282" priority="22">
+    <cfRule type="expression" dxfId="290" priority="22">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="23">
+    <cfRule type="expression" dxfId="289" priority="23">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="280" priority="19">
+    <cfRule type="expression" dxfId="288" priority="19">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="20">
+    <cfRule type="expression" dxfId="287" priority="20">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="278" priority="16">
+    <cfRule type="expression" dxfId="286" priority="16">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="17">
+    <cfRule type="expression" dxfId="285" priority="17">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="276" priority="12">
+    <cfRule type="expression" dxfId="284" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="13">
+    <cfRule type="expression" dxfId="283" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="14">
+    <cfRule type="expression" dxfId="282" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="273" priority="10">
+    <cfRule type="expression" dxfId="281" priority="10">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="11">
+    <cfRule type="expression" dxfId="280" priority="11">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E41 G35:H41">
-    <cfRule type="expression" dxfId="271" priority="6">
+    <cfRule type="expression" dxfId="279" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="7">
+    <cfRule type="expression" dxfId="278" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="8">
+    <cfRule type="expression" dxfId="277" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C41 F35:F41">
-    <cfRule type="expression" dxfId="268" priority="4">
+    <cfRule type="expression" dxfId="276" priority="4">
       <formula>$P35&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="5">
+    <cfRule type="expression" dxfId="275" priority="5">
       <formula>$O35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:E41 G35:H41">
-    <cfRule type="expression" dxfId="266" priority="2">
+    <cfRule type="expression" dxfId="274" priority="2">
       <formula>NOT(ISBLANK($G35))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37046,7 +37118,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C10" s="61">
         <f>C78</f>
@@ -37055,7 +37127,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C11" s="61">
         <f>C86</f>
@@ -37064,7 +37136,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C12" s="61">
         <f>C94</f>
@@ -37073,7 +37145,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C13" s="61">
         <f>C102</f>
@@ -37082,7 +37154,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C14" s="61">
         <f>$C$110</f>
@@ -37091,7 +37163,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C15" s="61">
         <f>$C$118</f>
@@ -42395,56 +42467,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="255" priority="28">
+    <cfRule type="expression" dxfId="263" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="29">
+    <cfRule type="expression" dxfId="262" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="30">
+    <cfRule type="expression" dxfId="261" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="252" priority="26">
+    <cfRule type="expression" dxfId="260" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="27">
+    <cfRule type="expression" dxfId="259" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="250" priority="10">
+    <cfRule type="expression" dxfId="258" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="11">
+    <cfRule type="expression" dxfId="257" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="12">
+    <cfRule type="expression" dxfId="256" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="247" priority="8">
+    <cfRule type="expression" dxfId="255" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="9">
+    <cfRule type="expression" dxfId="254" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="245" priority="5">
+    <cfRule type="expression" dxfId="253" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="6">
+    <cfRule type="expression" dxfId="252" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="243" priority="2">
+    <cfRule type="expression" dxfId="251" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="3">
+    <cfRule type="expression" dxfId="250" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45880,21 +45952,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="237" priority="4">
+    <cfRule type="expression" dxfId="245" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="5">
+    <cfRule type="expression" dxfId="244" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="6">
+    <cfRule type="expression" dxfId="243" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="234" priority="2">
+    <cfRule type="expression" dxfId="242" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="3">
+    <cfRule type="expression" dxfId="241" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49490,26 +49562,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="231" priority="5">
+    <cfRule type="expression" dxfId="239" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="6">
+    <cfRule type="expression" dxfId="238" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="7">
+    <cfRule type="expression" dxfId="237" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="228" priority="3">
+    <cfRule type="expression" dxfId="236" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="4">
+    <cfRule type="expression" dxfId="235" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="226" priority="1">
+    <cfRule type="expression" dxfId="234" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53059,42 +53131,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="224" priority="16">
+    <cfRule type="expression" dxfId="232" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="17">
+    <cfRule type="expression" dxfId="231" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="18">
+    <cfRule type="expression" dxfId="230" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="221" priority="14">
+    <cfRule type="expression" dxfId="229" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="15">
+    <cfRule type="expression" dxfId="228" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="219" priority="12">
+    <cfRule type="expression" dxfId="227" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="218" priority="6">
+    <cfRule type="expression" dxfId="226" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="7">
+    <cfRule type="expression" dxfId="225" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="8">
+    <cfRule type="expression" dxfId="224" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="215" priority="5">
+    <cfRule type="expression" dxfId="223" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56620,42 +56692,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="213" priority="12">
+    <cfRule type="expression" dxfId="221" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="13">
+    <cfRule type="expression" dxfId="220" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="14">
+    <cfRule type="expression" dxfId="219" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="210" priority="10">
+    <cfRule type="expression" dxfId="218" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="11">
+    <cfRule type="expression" dxfId="217" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="208" priority="8">
+    <cfRule type="expression" dxfId="216" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="207" priority="5">
+    <cfRule type="expression" dxfId="215" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="6">
+    <cfRule type="expression" dxfId="214" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="7">
+    <cfRule type="expression" dxfId="213" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="204" priority="4">
+    <cfRule type="expression" dxfId="212" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60199,26 +60271,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="201" priority="16">
+    <cfRule type="expression" dxfId="209" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="17">
+    <cfRule type="expression" dxfId="208" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="18">
+    <cfRule type="expression" dxfId="207" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="198" priority="14">
+    <cfRule type="expression" dxfId="206" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="15">
+    <cfRule type="expression" dxfId="205" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="196" priority="12">
+    <cfRule type="expression" dxfId="204" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
